--- a/app/src/main/assets/Komunikasyon at Pananaliksik sa Wika at Kulturang Pilipino.xlsx
+++ b/app/src/main/assets/Komunikasyon at Pananaliksik sa Wika at Kulturang Pilipino.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\OneDrive\Desktop\FILES\Others\AcademicAlly Assessments\Complete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81844626-BCF9-4CA7-BFBA-C69844FCF5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18342817-B5B6-473F-BD23-572298CC0968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="117">
   <si>
     <t>Ano ang pinagmulan ng salitang "wika"?</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>07 Handout</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -423,14 +426,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -727,7 +729,7 @@
     <col min="6" max="6" width="52.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -749,8 +751,11 @@
       <c r="G1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -772,8 +777,11 @@
       <c r="G2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -795,8 +803,11 @@
       <c r="G3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -818,8 +829,11 @@
       <c r="G4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="G5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -864,8 +881,11 @@
       <c r="G6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -887,8 +907,11 @@
       <c r="G7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -910,8 +933,11 @@
       <c r="G8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -933,8 +959,11 @@
       <c r="G9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -956,8 +985,11 @@
       <c r="G10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -979,8 +1011,11 @@
       <c r="G11" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -1002,8 +1037,11 @@
       <c r="G12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -1025,8 +1063,11 @@
       <c r="G13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -1048,8 +1089,11 @@
       <c r="G14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -1070,6 +1114,9 @@
       </c>
       <c r="G15" t="s">
         <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.3">
@@ -1082,7 +1129,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -1095,7 +1142,7 @@
     <col min="3" max="3" width="68.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1105,8 +1152,11 @@
       <c r="C1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1116,8 +1166,11 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1127,8 +1180,11 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1138,8 +1194,11 @@
       <c r="C4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1149,8 +1208,11 @@
       <c r="C5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1160,8 +1222,11 @@
       <c r="C6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -1171,8 +1236,11 @@
       <c r="C7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -1182,8 +1250,11 @@
       <c r="C8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1193,8 +1264,11 @@
       <c r="C9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -1204,8 +1278,11 @@
       <c r="C10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -1215,8 +1292,11 @@
       <c r="C11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -1226,8 +1306,11 @@
       <c r="C12" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -1237,16 +1320,22 @@
       <c r="C13" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1256,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1268,7 +1357,7 @@
     <col min="2" max="2" width="128.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1278,8 +1367,11 @@
       <c r="C1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1289,8 +1381,11 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1300,8 +1395,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1311,8 +1409,11 @@
       <c r="C4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1322,8 +1423,11 @@
       <c r="C5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1333,8 +1437,11 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -1344,8 +1451,11 @@
       <c r="C7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -1355,8 +1465,11 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1366,8 +1479,11 @@
       <c r="C9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -1377,8 +1493,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -1388,8 +1507,11 @@
       <c r="C11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -1399,8 +1521,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -1410,8 +1535,11 @@
       <c r="C13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -1421,8 +1549,11 @@
       <c r="C14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -1431,6 +1562,9 @@
       </c>
       <c r="C15" t="b">
         <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1440,9 +1574,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1578,26 +1715,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C4620DF-486A-4248-BA06-5D09E5BF22DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{022F027E-3160-4A1C-ABD3-C4CDDFB914C7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="feb07d19-ed4c-49e7-a19d-593efbdb7ce4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1621,9 +1747,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{022F027E-3160-4A1C-ABD3-C4CDDFB914C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C4620DF-486A-4248-BA06-5D09E5BF22DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="feb07d19-ed4c-49e7-a19d-593efbdb7ce4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>